--- a/Python/CSI BOM compare/Result.xlsx
+++ b/Python/CSI BOM compare/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ref Designator</t>
         </is>
@@ -453,56 +458,263 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SMT-SHUNT24V-04</t>
+          <t>THT-MPG3BPJU-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SMT-SHUNT24V-04</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24V Battery Fuse Fail Board</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>CYS-22275300-00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.2nF 300VAC Y1 10% 8x6mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C903</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SMT-SHUNT24V-04</t>
+          <t>THT-MPG3BPJU-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RES-21005150-00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1K0 0805 1% 50ppm SMT Resistor</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>PCB-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>G3 Aux connector PCB: FS6 Jumper</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SMT-SHUNT48V-03</t>
+          <t>THT-MPG3BPJU-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SMT-SHUNT48V-03</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12 - 48V Hi Side Shunt PCB Assembly</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>LBS-PCBTCODE-00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>QR Code Labels for SMT PCBs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMTINFO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board Assembly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SMT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board SMT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>STT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Top stencil for PCB-MPG3BPJ-03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LBF-2DSERIAL-00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board TH Assembly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SMT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board SMT Assy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>STT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Top Stencil for PCB-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PCB-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>G3 Aux connector PCB: FS6 Jumper</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Python/CSI BOM compare/Result.xlsx
+++ b/Python/CSI BOM compare/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,287 +434,74 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ref Designator</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>LevelTHT-MPG3BPJU-03 (22 items)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>ItemTHT-MPG3BPJU-03 (22 items)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>DescriptionTHT-MPG3BPJU-03 (22 items)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ref Designator</t>
+          <t>LevelTHT-MPG3BPJU-04 (23 items)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ItemTHT-MPG3BPJU-04 (23 items)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DescriptionTHT-MPG3BPJU-04 (23 items)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>THT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board Assembly</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>THT-MPG3BPJU-04</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CYS-22275300-00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.2nF 300VAC Y1 10% 8x6mm</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C903</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PCB-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>G3 Aux connector PCB: FS6 Jumper</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LBS-PCBTCODE-00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>QR Code Labels for SMT PCBs</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SMTINFO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MP G3 FS6 Jumper Board Assembly</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SMT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MP G3 FS6 Jumper Board SMT</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>STT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Top stencil for PCB-MPG3BPJ-03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-03</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LBF-2DSERIAL-00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>MP G3 FS6 Jumper Board TH Assembly</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SMT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MP G3 FS6 Jumper Board SMT Assy</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>STT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Top Stencil for PCB-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>THT-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PCB-MPG3BPJU-04</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>G3 Aux connector PCB: FS6 Jumper</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Python/CSI BOM compare/Result.xlsx
+++ b/Python/CSI BOM compare/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,44 +434,46 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Item_x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description_x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ref Designator</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTHT-MPG3BPJU-03 (22 items)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ItemTHT-MPG3BPJU-03 (22 items)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DescriptionTHT-MPG3BPJU-03 (22 items)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTHT-MPG3BPJU-04 (23 items)</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ItemTHT-MPG3BPJU-04 (23 items)</t>
+          <t>Item_y</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DescriptionTHT-MPG3BPJU-04 (23 items)</t>
+          <t>Description_y</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>0</t>
@@ -487,11 +489,7 @@
           <t>MP G3 FS6 Jumper Board Assembly</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>THT-MPG3BPJU-04</t>
@@ -500,6 +498,859 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>MP G3 FS6 Jumper Board TH Assembly</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CET-722035P4-00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>220uF 35V 105ºC Ø8x20/15 Legs 4mm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C901</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CET-722035P4-00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>220uF 35V 105ºC Ø8x20/15 Legs 4mm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXT-46830515-00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>680nF 305VAC X2 P15mm Film</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C902</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CXT-46830515-00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>680nF 305VAC X2 P15mm Film</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KNT-PH25S102-00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2 Way Header MTA Style &amp; PinLock</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J900</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>KNT-PH25S102-00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 Way Header MTA Style &amp; PinLock</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>KNT-PH25S110-00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10 Way Header MTA Style w' Pin Lock</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J901</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>KNT-PH25S110-00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10 Way Header MTA Style w' Pin Lock</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SMT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board SMT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SMT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board SMT Assy</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LBF-2DSERIAL-00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SMT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MP G3 FS6 Jumper Board SMT Assy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DZS-115260DA-00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15V UniDir Suppress Diode SMB  600W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D901</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DZS-115260DA-00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15V UniDir Suppress Diode SMB  600W</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KNS-SKNNSF20-00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10x2Way Top/Btm VertSocket P2mm SMT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>KNS-SKNNSF20-00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10x2Way Top/Btm VertSocket P2mm SMT</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KNS-SKNNSF20-00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10x2Way Top/Btm VertSocket P2mm SMT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>J902</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>KNS-SKNNSF20-00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10x2Way Top/Btm VertSocket P2mm SMT</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PCB-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>G3 Aux connector PCB: FS6 Jumper</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>R900</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>R901</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>R902</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>R903</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>R904</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>R905</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>R906</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>R907</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>RES-31003150-00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RES-32203150-00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>R908</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>RES-32203150-00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>22K 0603 1% 50ppm 75V 0.1W SMT Res</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FSS-03A024PL-00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24V 3A SMT Polyswitch</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RT901</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FSS-03A024PL-00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>24V 3A SMT Polyswitch</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>STT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Top stencil for PCB-MPG3BPJ-03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>STT-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Top Stencil for PCB-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>STT-MPG3BPJU-03</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Top stencil for PCB-MPG3BPJ-03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PCB-MPG3BPJU-04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>G3 Aux connector PCB: FS6 Jumper</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C903</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CYS-22275300-00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.2nF 300VAC Y1 10% 8x6mm</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SMTINFO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LBS-PCBTCODE-00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>QR Code Labels for SMT PCBs</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Attention</t>
         </is>
       </c>
     </row>

--- a/Python/CSI BOM compare/Result.xlsx
+++ b/Python/CSI BOM compare/Result.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Attention!</t>
         </is>
       </c>
     </row>
